--- a/biology/Neurosciences/Programme_d'entraînement_cérébral_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__/Programme_d'entraînement_cérébral_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__.xlsx
+++ b/biology/Neurosciences/Programme_d'entraînement_cérébral_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__/Programme_d'entraînement_cérébral_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+          <t>Programme_d'entraînement_cérébral_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Programme d'entraînement cérébral du Dr Kawashima : Quel âge a votre cerveau ? (en anglais : Brain Age: Train Your Brain in Minutes a Day en Amérique du Nord, ou Dr. Kawashima's Brain Training: How Old Is Your Brain? en Europe) est un jeu vidéo de réflexion sorti sur Nintendo DS en 2005 au Japon. Il fait partie de la gamme de jeux « Touch! Generations ».
 Au Japon, il est connu sous le nom Tōhoku Daigaku Mirai Kagakugijutsu Kyōdōkenkyū Center Kawashima Ryūta Kyōju Kanshū Nō o Kitaeru Otona no DS Training (東北大学未来科学技術共同研究センター川島隆太教授監修 脳を鍛える大人のDSトレーニング en japonais).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+          <t>Programme_d'entraînement_cérébral_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Déroulement du jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le joueur est accueilli par le professeur Ryuta Kawashima, et fait tout d'abord quelques tests (de mémoire, calcul mental, vitesse de lecture, etc.) qui permettent à la machine d'évaluer son cerveau et de lui donner âge à ce dernier. Il devra ensuite faire ces jeux régulièrement pour faire évoluer sa « note , et pourra consulter des graphiques présentant sa progression. De nouveaux jeux se débloquent au fur et à mesure de l'avancée dans le jeu.
 Une version de démonstration est présente pour faire essayer le jeu à des amis.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+          <t>Programme_d'entraînement_cérébral_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,8 +573,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Évaluation
-Ces tests sont utilisés par le jeu pour évaluer l'âge du cerveau du joueur.
+          <t>Évaluation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces tests sont utilisés par le jeu pour évaluer l'âge du cerveau du joueur.
 Couleurs : Les mots "Rouge", "Bleu", "Jaune" et "Noir" s'affichent écrits en rouge, bleu, jaune ou noir.
 Le joueur doit dire à voix haute la couleur des lettres le plus rapidement possible. Au bout de 50 mots, le jeu se termine. Ce test est basé sur l'effet Stroop.
 Mnémonique : 30 mots s'affichent à l'écran pendant 2 minutes.
@@ -569,8 +588,43 @@
 Tracé : Des points comportant des lettres de A à M et des nombre de 1 à 13 sont éparpillés sur l'écran tactile et doivent être reliés rapidement possible dans l'ordre suivant : A-1-B-2-C-3-D-4.....M-13.
 Vitesse : Ce test consiste simplement à compter à voix haute aussi vite que possible jusqu'à 120.
 Calcul 20 : 20 calculs simples (additions, soustractions, multiplications) s'affichent et le joueur doit écrire rapidement les réponses.
-Entraînement
-Calcul 20 : Même jeu que pour l'évaluation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Programme_d'entraînement_cérébral_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description des tests</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Entraînement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calcul 20 : Même jeu que pour l'évaluation.
 Calcul 100 : Même principe que le Calcul 20, mais avec 100 calculs.
 Lecture : Le joueur doit lire à voix haute un texte de littérature. La vitesse de lecture détermine le rang du joueur.
 Mémoire : Des chiffres apparaissent un court instant avant d'être cachés. Le joueur doit ensuite toucher les emplacements des nombres dans l'ordre croissant. S'il réussit, il continue avec 1 chiffre de plus. S'il échoue, il continue avec 1 chiffre de moins. Plus le joueur arrive à mémoriser de chiffres, plus il obtient de points.
@@ -595,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Programme_d'entraînement_cérébral_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Critiques commerciales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le jeu a reçu un accueil favorable par la critique :
 (fr) Jeuxvideo.com 15/20
@@ -632,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Programme_d'entraînement_cérébral_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Critiques et controverses scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour vérifier l'efficacité du jeu vidéo sur les capacités intellectuelles, les chercheurs français Alain Lieury et Sonia Lorant-Royer ont mené une étude expérimentale indépendante. Ils ont réparti des enfants de dix ans en quatre groupes qui ont reçu un entraînement différent pendant sept semaines :
 les deux premiers groupes ont utilisé le Programme d'entraînement cérébral du Docteur Kawashima durant ces sept semaines ;
@@ -666,41 +724,43 @@
 les groupes Kawashima et le groupe papier-crayon ont autant progressé que le quatrième (environ 20 %) ;
 les groupes Kawashima ont régressé de 15 % en mémorisation alors que le groupe papier-crayon a augmenté de 30 % ;
 globalement, les groupes Kawashima et papier-crayon ont progressé de 10 %. C'est bien moins que le quatrième (20 %).
-Le jeu n'a pas eu d'impact sur les capacités cérébrales des enfants. Alain Lieury en conclut que si ces jeux ne fonctionnent pas sur les enfants, à l'âge où l'apprentissage est le meilleur, il ne fonctionnera pas non plus chez l'adulte. Il en conclut que le jeu n'est qu'un jeu, mais pas un outil permettant d'améliorer le cerveau[1],[2].
+Le jeu n'a pas eu d'impact sur les capacités cérébrales des enfants. Alain Lieury en conclut que si ces jeux ne fonctionnent pas sur les enfants, à l'âge où l'apprentissage est le meilleur, il ne fonctionnera pas non plus chez l'adulte. Il en conclut que le jeu n'est qu'un jeu, mais pas un outil permettant d'améliorer le cerveau,.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Programme_d'entraînement_cérébral_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jeu a connu une suite, Programme d'entraînement cérébral avancé du Dr Kawashima : Quel âge a votre cerveau ?, et son succès a entrainé la création de jeux similaires (Brain Trainer Portable sur PlayStation Portable). Il fait partie de cette catégorie de jeux sur Nintendo DS ayant surpris les analystes de la branche de par des ventes durables et un total de ventes dépassant le triple-million. L'essor de ces « non-jeux » a fortement pesé dans le duel opposant la Nintendo DS à la PlayStation Portable. Le succès de cette franchise est si important que sa suite est le jeu le plus vendu de tous les temps au Japon, après Super Mario Bros. et les jeux de la marque Pokémon, dans des classements de 2007[3]. Le jeu existe en versions coupées sur le catalogue : DSiWare et a fait l'exclusivité de la DSI XL avec le jeu Une pause avec l'Entraînement cérébral : Littéraire[4] donc une petite partie du jeu original, on retrouve : Mélomane, Cartes de visites (à compléter).
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jeu a connu une suite, Programme d'entraînement cérébral avancé du Dr Kawashima : Quel âge a votre cerveau ?, et son succès a entrainé la création de jeux similaires (Brain Trainer Portable sur PlayStation Portable). Il fait partie de cette catégorie de jeux sur Nintendo DS ayant surpris les analystes de la branche de par des ventes durables et un total de ventes dépassant le triple-million. L'essor de ces « non-jeux » a fortement pesé dans le duel opposant la Nintendo DS à la PlayStation Portable. Le succès de cette franchise est si important que sa suite est le jeu le plus vendu de tous les temps au Japon, après Super Mario Bros. et les jeux de la marque Pokémon, dans des classements de 2007. Le jeu existe en versions coupées sur le catalogue : DSiWare et a fait l'exclusivité de la DSI XL avec le jeu Une pause avec l'Entraînement cérébral : Littéraire donc une petite partie du jeu original, on retrouve : Mélomane, Cartes de visites (à compléter).
 Le 28 juillet 2017 paraît en France le troisième opus, L'infernal programme d'entraînement cérébral du Dr Kawashima : Pouvez-vous rester concentré ?, sur les consoles de la famille Nintendo 3DS, et cela plus de 5 ans après sa parution japonaise le 28 juillet 2012. Ne s'intéressant plus à l'âge du cerveau, le jeu s'articule autour de "l'entraînement infernal" qui vise à améliorer les capacités de concentration du joueur, en réaction au développement des nouvelles technologies du début du XXIe siècle qui, selon l'introduction du jeu, nous contraindraient à agir en permanence dans une logique multitâche en limitant notre capacité à nous investir pleinement et efficacement sur une seule activité.
 La quatrième version du Programme d'entraînement cérébral du Dr Kawashima délaisse la 3DS et passe sur Nintendo Switch. Le jeu est déjà disponible au Japon depuis octobre 2019. La version française sort le 3 janvier 2020.
-Le docteur Kawashima se serait vu proposer 22 millions de dollars en guise de royalties par Nintendo. Le scientifique les a tout simplement refusés. L'intégralité des 22 millions est allée à une fondation pour la recherche scientifique : « Je n'ai pas eu un seul sou en poche […] Toute ma famille est en colère à cause de cela. Mais je leur réponds que, s'ils veulent de l'argent, ils n'ont qu'à travailler pour le mériter ! »[5],[6]
+Le docteur Kawashima se serait vu proposer 22 millions de dollars en guise de royalties par Nintendo. Le scientifique les a tout simplement refusés. L'intégralité des 22 millions est allée à une fondation pour la recherche scientifique : « Je n'ai pas eu un seul sou en poche […] Toute ma famille est en colère à cause de cela. Mais je leur réponds que, s'ils veulent de l'argent, ils n'ont qu'à travailler pour le mériter ! »,
 </t>
         </is>
       </c>
